--- a/bots/crawl_ch/output/vegi_coop_2023-01-03.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-01-03.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -5394,7 +5394,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -5463,7 +5463,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5849,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -5922,7 +5922,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -6103,7 +6103,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -6367,7 +6367,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -6639,7 +6639,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -6704,7 +6704,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6769,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6907,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -7110,7 +7110,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -7179,7 +7179,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -7248,7 +7248,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -7317,7 +7317,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7382,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -7719,7 +7719,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -7788,7 +7788,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -7922,7 +7922,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -8190,7 +8190,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -8259,7 +8259,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -8328,7 +8328,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -8458,7 +8458,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -8527,7 +8527,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -8738,7 +8738,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -8807,7 +8807,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -8880,7 +8880,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -9026,7 +9026,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -9095,7 +9095,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -9164,7 +9164,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -9233,7 +9233,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -9302,7 +9302,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9371,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -9440,7 +9440,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -9505,7 +9505,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -9574,7 +9574,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -9643,7 +9643,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -9712,7 +9712,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -9850,7 +9850,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -9919,7 +9919,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -9984,7 +9984,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -10256,7 +10256,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -10321,7 +10321,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -10390,7 +10390,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -10666,7 +10666,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -10938,7 +10938,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -11007,7 +11007,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11076,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -11145,7 +11145,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -11212,7 +11212,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -11277,7 +11277,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -11545,7 +11545,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -11967,7 +11967,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -12093,7 +12093,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -12158,7 +12158,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -12223,7 +12223,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -12292,7 +12292,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -12357,7 +12357,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12426,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -12495,7 +12495,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -12548,7 +12548,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -12617,7 +12617,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -12753,7 +12753,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -12822,7 +12822,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -12895,7 +12895,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -12964,7 +12964,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -13171,7 +13171,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -13244,7 +13244,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -13313,7 +13313,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13451,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -13520,7 +13520,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -13735,7 +13735,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -13804,7 +13804,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -14084,7 +14084,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -14153,7 +14153,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -14220,7 +14220,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -14289,7 +14289,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -14419,7 +14419,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -14484,7 +14484,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -14553,7 +14553,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -14622,7 +14622,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -14691,7 +14691,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -14756,7 +14756,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -14825,7 +14825,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -14894,7 +14894,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -14963,7 +14963,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -15105,7 +15105,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -15170,7 +15170,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -15243,7 +15243,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -15312,7 +15312,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -15434,7 +15434,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -15499,7 +15499,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -15564,7 +15564,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -15629,7 +15629,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -15694,7 +15694,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -15757,7 +15757,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -15826,7 +15826,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -15895,7 +15895,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -15964,7 +15964,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -16037,7 +16037,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -16102,7 +16102,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -16171,7 +16171,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -16244,7 +16244,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -16317,7 +16317,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -16386,7 +16386,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -16451,7 +16451,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -16524,7 +16524,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -16593,7 +16593,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -16644,7 +16644,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -16713,7 +16713,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -16786,7 +16786,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -16855,7 +16855,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -16924,7 +16924,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -16997,7 +16997,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -17070,7 +17070,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -17139,7 +17139,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -17208,7 +17208,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -17281,7 +17281,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -17350,7 +17350,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -17423,7 +17423,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -17492,7 +17492,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -17561,7 +17561,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -17634,7 +17634,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -17703,7 +17703,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -17768,7 +17768,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -17841,7 +17841,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -17914,7 +17914,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -17983,7 +17983,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -18048,7 +18048,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -18194,7 +18194,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -18267,7 +18267,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -18340,7 +18340,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -18409,7 +18409,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -18478,7 +18478,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -18551,7 +18551,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -18624,7 +18624,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -18689,7 +18689,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -18758,7 +18758,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -18827,7 +18827,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -18900,7 +18900,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -18969,7 +18969,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -19034,7 +19034,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -19099,7 +19099,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -19168,7 +19168,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -19237,7 +19237,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -19310,7 +19310,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -19383,7 +19383,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -19448,7 +19448,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -19517,7 +19517,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -19590,7 +19590,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -19659,7 +19659,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -19732,7 +19732,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -19801,7 +19801,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -19870,7 +19870,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -19943,7 +19943,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -20008,7 +20008,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -20077,7 +20077,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -20215,7 +20215,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -20288,7 +20288,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -20361,7 +20361,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -20426,7 +20426,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -20491,7 +20491,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -20564,7 +20564,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -20629,7 +20629,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -20698,7 +20698,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -20767,7 +20767,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -20840,7 +20840,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -20913,7 +20913,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -20986,7 +20986,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -21059,7 +21059,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -21128,7 +21128,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -21191,7 +21191,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -21264,7 +21264,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -21337,7 +21337,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -21402,7 +21402,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -21467,7 +21467,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -21532,7 +21532,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -21597,7 +21597,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -21670,7 +21670,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -21739,7 +21739,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -21808,7 +21808,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -21881,7 +21881,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -21954,7 +21954,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22017,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -22090,7 +22090,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -22155,7 +22155,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -22228,7 +22228,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -22301,7 +22301,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -22370,7 +22370,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -22443,7 +22443,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -22512,7 +22512,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -22575,13 +22575,13 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>Fairtrade Papaya 1 Stück - Online kein Bestand 2.85 Schweizer Franken</t>
+          <t>Fairtrade Papaya 1 Stück 2.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -22650,7 +22650,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -22719,7 +22719,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -22784,7 +22784,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -22857,7 +22857,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -22930,7 +22930,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -22993,7 +22993,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -23066,7 +23066,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -23139,7 +23139,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -23204,7 +23204,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -23277,7 +23277,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -23350,7 +23350,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -23423,7 +23423,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -23492,7 +23492,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -23565,7 +23565,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -23618,7 +23618,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -23687,7 +23687,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -23752,7 +23752,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -23825,7 +23825,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -23890,7 +23890,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -23959,7 +23959,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -24010,7 +24010,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -24075,7 +24075,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -24138,7 +24138,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -24211,7 +24211,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -24274,7 +24274,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -24343,7 +24343,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -24412,7 +24412,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -24481,7 +24481,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -24554,7 +24554,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -24627,7 +24627,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -24692,7 +24692,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -24757,7 +24757,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -24830,7 +24830,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -24903,7 +24903,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -24976,7 +24976,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -25039,13 +25039,13 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Shiitake-Pilze ca. 100g - Online kein Bestand 3.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Shiitake-Pilze ca. 100g 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -25118,7 +25118,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -25187,7 +25187,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -25256,7 +25256,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -25329,7 +25329,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -25402,7 +25402,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -25449,7 +25449,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -25514,7 +25514,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -25587,7 +25587,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -25660,7 +25660,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -25729,7 +25729,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -25796,7 +25796,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -25861,7 +25861,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -25930,7 +25930,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -26003,7 +26003,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -26076,7 +26076,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -26145,7 +26145,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -26214,7 +26214,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -26283,7 +26283,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -26354,7 +26354,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -26427,7 +26427,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -26500,7 +26500,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -26573,7 +26573,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -26646,7 +26646,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -26715,7 +26715,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -26780,7 +26780,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -26853,7 +26853,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -26926,7 +26926,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -26999,7 +26999,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -27072,7 +27072,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -27145,7 +27145,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -27218,7 +27218,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -27291,7 +27291,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -27364,7 +27364,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -27433,7 +27433,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -27498,7 +27498,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -27567,7 +27567,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -27636,7 +27636,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -27709,7 +27709,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -27778,7 +27778,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -27827,7 +27827,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -27900,7 +27900,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -27973,7 +27973,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -28046,7 +28046,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -28113,7 +28113,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -28186,7 +28186,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -28255,7 +28255,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -28320,7 +28320,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -28393,7 +28393,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -28466,7 +28466,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -28531,7 +28531,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -28604,7 +28604,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -28673,7 +28673,7 @@
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -28746,7 +28746,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -28815,7 +28815,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -28884,7 +28884,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -28957,7 +28957,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -29026,7 +29026,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -29099,7 +29099,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -29168,7 +29168,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -29241,7 +29241,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -29314,7 +29314,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -29387,7 +29387,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -29460,7 +29460,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -29529,7 +29529,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -29602,7 +29602,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -29673,7 +29673,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -29746,7 +29746,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -29815,7 +29815,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -29888,7 +29888,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -29945,13 +29945,13 @@
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>Birnen Rocha IP-Suisse ca. 1kg - Online kein Bestand 4.50 Schweizer Franken</t>
+          <t>Birnen Rocha IP-Suisse ca. 1kg 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -30020,7 +30020,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -30085,7 +30085,7 @@
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -30158,7 +30158,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -30221,7 +30221,7 @@
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -30294,7 +30294,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -30367,7 +30367,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -30420,7 +30420,7 @@
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -30485,7 +30485,7 @@
       <c r="N438" t="inlineStr"/>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -30554,7 +30554,7 @@
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -30627,7 +30627,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -30700,7 +30700,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -30753,7 +30753,7 @@
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -30826,7 +30826,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -30899,7 +30899,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -30968,7 +30968,7 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -31041,7 +31041,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -31114,7 +31114,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -31187,7 +31187,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -31260,7 +31260,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -31327,7 +31327,7 @@
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -31398,7 +31398,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -31471,7 +31471,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -31540,7 +31540,7 @@
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -31613,7 +31613,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -31684,7 +31684,7 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -31753,7 +31753,7 @@
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -31820,7 +31820,7 @@
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -31891,7 +31891,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -31964,7 +31964,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -32037,7 +32037,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -32110,7 +32110,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -32179,7 +32179,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -32252,7 +32252,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -32321,7 +32321,7 @@
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -32394,7 +32394,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -32467,7 +32467,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -32540,7 +32540,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -32613,7 +32613,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -32678,7 +32678,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -32745,7 +32745,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -32818,7 +32818,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -32883,7 +32883,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -32952,7 +32952,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -33017,7 +33017,7 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -33086,7 +33086,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -33155,7 +33155,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -33228,7 +33228,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -33291,7 +33291,7 @@
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -33356,7 +33356,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -33429,7 +33429,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -33500,7 +33500,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -33569,7 +33569,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -33642,7 +33642,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -33707,7 +33707,7 @@
       <c r="N484" t="inlineStr"/>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -33780,7 +33780,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -33843,7 +33843,7 @@
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -33916,7 +33916,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -33985,7 +33985,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -34058,7 +34058,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -34127,7 +34127,7 @@
       <c r="N490" t="inlineStr"/>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -34184,7 +34184,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -34253,7 +34253,7 @@
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -34326,7 +34326,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -34397,7 +34397,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -34466,7 +34466,7 @@
       <c r="N495" t="inlineStr"/>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -34539,7 +34539,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -34604,7 +34604,7 @@
       <c r="N497" t="inlineStr"/>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -34671,7 +34671,7 @@
       <c r="N498" t="inlineStr"/>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -34744,7 +34744,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -34813,7 +34813,7 @@
       <c r="N500" t="inlineStr"/>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -34878,7 +34878,7 @@
       <c r="N501" t="inlineStr"/>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -34949,7 +34949,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -35022,7 +35022,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -35095,7 +35095,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -35158,7 +35158,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -35223,7 +35223,7 @@
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -35296,7 +35296,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -35369,7 +35369,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -35442,7 +35442,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -35493,7 +35493,7 @@
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -35564,7 +35564,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -35637,7 +35637,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -35710,7 +35710,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -35783,7 +35783,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -35854,7 +35854,7 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -35923,7 +35923,7 @@
       <c r="N516" t="inlineStr"/>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -35996,7 +35996,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -36061,7 +36061,7 @@
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -36134,7 +36134,7 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -36207,7 +36207,7 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -36276,7 +36276,7 @@
       <c r="N521" t="inlineStr"/>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -36347,7 +36347,7 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -36420,7 +36420,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -36493,7 +36493,7 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -36566,7 +36566,7 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -36631,7 +36631,7 @@
       <c r="N526" t="inlineStr"/>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -36694,7 +36694,7 @@
       <c r="N527" t="inlineStr"/>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -36765,7 +36765,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -36832,7 +36832,7 @@
       <c r="N529" t="inlineStr"/>
       <c r="O529" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
@@ -36899,7 +36899,7 @@
       <c r="N530" t="inlineStr"/>
       <c r="O530" t="inlineStr">
         <is>
-          <t>2023-01-03 06:52:16</t>
+          <t>2023-01-03 12:59:19</t>
         </is>
       </c>
     </row>
